--- a/Covid_264_ww.xlsx
+++ b/Covid_264_ww.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21A342-998F-304E-BC44-CA15D9142904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E0FCEF-2310-EB45-8A42-73D8BB2C23A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7980" yWindow="2520" windowWidth="30000" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B894"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
+      <selection activeCell="F834" sqref="F834:F849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4986,7 +4986,7 @@
         <v>44620</v>
       </c>
       <c r="B512">
-        <v>-4.7169744163548701</v>
+        <v>0.12264591227951499</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -4994,7 +4994,7 @@
         <v>44621</v>
       </c>
       <c r="B513">
-        <v>-6.4626892936768696</v>
+        <v>0.12264591227951499</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -5002,7 +5002,7 @@
         <v>44622</v>
       </c>
       <c r="B514">
-        <v>-5.0912651005902294</v>
+        <v>0.12264591227951499</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -5010,7 +5010,7 @@
         <v>44623</v>
       </c>
       <c r="B515">
-        <v>-1.10681872831238</v>
+        <v>0.12264591227951499</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
